--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183104.324375552</v>
+        <v>181828.5703078492</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147076</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516636</v>
+        <v>7423353.428718868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5783038.169329213</v>
+        <v>5574514.114835981</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>53.45493389830298</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>245.6755389166971</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.9735834668218</v>
+        <v>198.8096778684287</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>32.19246757545142</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>163.4674767794822</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193452</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>133.9986524434719</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.711744148233</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>191.7079826231982</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1297,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>7.264602967362454</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>117.5958956965845</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.2209990735468</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>86.48613679462028</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038662</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>51.90275338347833</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.8926275451969</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>10.04027365719966</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>89.37841982550532</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.94976773515439</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2050,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5144690908967</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>174.0433999166774</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>52.73509820686137</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.13954148002294</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.423392126084862</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>373.9765107062732</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2330,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2369,22 +2371,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2524,19 +2526,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2555,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>185.1447535886774</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2615,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>47.30582748093318</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2798,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2849,7 +2851,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8560516879290071</v>
+        <v>28.192061969695</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.13954148002296</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>116.937715100299</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>393.8845681118913</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0.2750384750742614</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>185.5573750678089</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>157.9537701879983</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>89.37841982550486</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3664,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>102.8562685532377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3746,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>118.4363931081428</v>
+        <v>28.60468344882653</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3797,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>45.50306732735552</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>152.355512532834</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1329.268094920357</v>
+        <v>797.924085187707</v>
       </c>
       <c r="C2" t="n">
-        <v>891.1256221037802</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D2" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E2" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488304</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.72477542213</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1755.567665405265</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1755.567665405265</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1755.567665405265</v>
+        <v>1224.223655672615</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
         <v>959.897665623735</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.91886054423605</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C5" t="n">
-        <v>53.40121652862856</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>53.40121652862856</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>53.40121652862856</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4571,16 +4573,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294905</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y5" t="n">
-        <v>512.2184310291439</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4756,19 +4758,19 @@
         <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>454.7990479053647</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7990479053647</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="D8" t="n">
-        <v>454.7990479053647</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="E8" t="n">
-        <v>454.7990479053647</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
-        <v>1559.714245277141</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1140.571781856452</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>732.2856581561051</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.576262321712</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.576262321712</v>
+        <v>1318.993051694572</v>
       </c>
       <c r="D11" t="n">
-        <v>882.6664774961569</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5072,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2505.191130397542</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2142.574180331369</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>1737.718725742402</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.576262321712</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.576262321712</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516122</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>741.4772326516122</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>741.4772326516122</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>571.7192289023494</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>395.0121748641056</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>229.4208998899333</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5224,25 +5226,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U13" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705994</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>455.2158372782247</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="C14" t="n">
-        <v>455.2158372782247</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="D14" t="n">
-        <v>455.2158372782247</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="E14" t="n">
-        <v>455.2158372782247</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2158372782247</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2476.416399539308</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2476.416399539308</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V14" t="n">
-        <v>2113.799449473135</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W14" t="n">
-        <v>1708.943994884168</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X14" t="n">
-        <v>1289.801531463479</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y14" t="n">
-        <v>881.5154077631325</v>
+        <v>1224.223655672616</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5358,22 +5360,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>741.4772326516127</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>575.5992398531354</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>405.8412361038726</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>229.1341820656288</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>63.5429070914565</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5458,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.228219012466</v>
+        <v>1842.632239310392</v>
       </c>
       <c r="C17" t="n">
-        <v>923.0857461958889</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D17" t="n">
-        <v>487.1759613703334</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862856</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5543,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2611.525707507029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2611.525707507029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2611.525707507029</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W17" t="n">
-        <v>2206.670252918062</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X17" t="n">
-        <v>1787.527789497373</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y17" t="n">
-        <v>1787.527789497373</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5668,7 +5670,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5698,22 +5700,22 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T19" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U19" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W19" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y19" t="n">
         <v>1324.277995859497</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1984.354610587528</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C20" t="n">
-        <v>1546.212137770951</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D20" t="n">
-        <v>1110.302352945396</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E20" t="n">
-        <v>676.5276081036909</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F20" t="n">
-        <v>248.6601785128987</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>72.85876445564877</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>72.85876445564877</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>974.4859745943021</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>1876.113184732956</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>2777.740394871609</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>3642.938222782438</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>3642.938222782438</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>3642.938222782438</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>3238.082768193472</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>2818.940304772782</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y20" t="n">
-        <v>2410.654181072436</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>579.0305094469416</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>472.5740482835839</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>377.4837594301371</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>283.3633447570908</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>199.9795063732524</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>114.5944166394363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>98.92243761610636</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>423.4807625823187</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1078.186809208042</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.925747840118</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>1736.098525934458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>1672.643088382841</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>1542.464444713442</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>1366.127897713411</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>1167.01037977541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>981.687625508604</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>826.8201897474839</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.3344105267047</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.9347805786329</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C22" t="n">
-        <v>588.3730690618578</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D22" t="n">
-        <v>422.4950762633805</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E22" t="n">
-        <v>252.7370725141178</v>
+        <v>399.1575173855749</v>
       </c>
       <c r="F22" t="n">
-        <v>76.03001847587396</v>
+        <v>222.4504633473311</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>56.85918837315873</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2668.10055306382</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2508.859184361817</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2262.979737940272</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>1984.546737193377</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V22" t="n">
-        <v>1697.591229063808</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W22" t="n">
-        <v>1425.564824650099</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X22" t="n">
-        <v>1180.173069983512</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y22" t="n">
-        <v>952.75339929762</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>2167.266489194576</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2167.266489194576</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1361.228219012466</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="C26" t="n">
-        <v>923.0857461958889</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="D26" t="n">
-        <v>487.1759613703334</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="E26" t="n">
-        <v>53.40121652862856</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="F26" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6230,46 +6232,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U26" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V26" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W26" t="n">
-        <v>1780.370682433155</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X26" t="n">
-        <v>1361.228219012466</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y26" t="n">
-        <v>1361.228219012466</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6306,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D28" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E28" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F28" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6409,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.320903761553</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C29" t="n">
-        <v>917.1784309449763</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D29" t="n">
-        <v>481.2686461194208</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E29" t="n">
-        <v>481.2686461194208</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G29" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L29" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N29" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O29" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>2189.906597946807</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="W29" t="n">
-        <v>2189.906597946807</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="X29" t="n">
-        <v>2189.906597946807</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="Y29" t="n">
-        <v>1781.620474246461</v>
+        <v>2078.642592532902</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J30" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>1699.639650578398</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q30" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R30" t="n">
         <v>1716.640978007438</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>56.57247054885377</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6625,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6646,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1650.358373569249</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C32" t="n">
-        <v>1212.215900752673</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D32" t="n">
-        <v>776.3061159271172</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="E32" t="n">
-        <v>342.5313710854123</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="F32" t="n">
-        <v>342.5313710854123</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L32" t="n">
-        <v>687.540662806093</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M32" t="n">
-        <v>687.540662806093</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6731,19 +6733,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U32" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V32" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>1650.358373569249</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X32" t="n">
-        <v>1650.358373569249</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.358373569249</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K33" t="n">
-        <v>1058.729261281022</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.729261281022</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N33" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O33" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P33" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q33" t="n">
         <v>1599.468199913098</v>
@@ -6847,13 +6849,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6880,10 +6882,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
         <v>2405.942210967199</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2190.493479979994</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C35" t="n">
-        <v>1752.351007163417</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D35" t="n">
-        <v>1316.441222337862</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E35" t="n">
-        <v>882.6664774961569</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V35" t="n">
-        <v>2190.771296621483</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W35" t="n">
-        <v>2190.493479979994</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X35" t="n">
-        <v>2190.493479979994</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y35" t="n">
-        <v>2190.493479979994</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
         <v>1599.468199913098</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1752.351007163417</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C38" t="n">
-        <v>1752.351007163417</v>
+        <v>489.3110013541841</v>
       </c>
       <c r="D38" t="n">
-        <v>1316.441222337862</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E38" t="n">
-        <v>882.6664774961569</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F38" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
@@ -7178,22 +7180,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M38" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N38" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7208,16 +7210,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2579.779594284453</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W38" t="n">
-        <v>2579.779594284453</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X38" t="n">
-        <v>2160.637130863764</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y38" t="n">
-        <v>1752.351007163417</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>900.7186013536161</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1568898368411</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D40" t="n">
-        <v>728.1568898368411</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1565.348645425083</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.956890758495</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y40" t="n">
-        <v>1092.537220072603</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1336.2163490388</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C41" t="n">
-        <v>898.0738762222231</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D41" t="n">
-        <v>462.1640913966676</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E41" t="n">
-        <v>462.1640913966676</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F41" t="n">
-        <v>462.1640913966676</v>
+        <v>371.4249907306916</v>
       </c>
       <c r="G41" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N41" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O41" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W41" t="n">
-        <v>1744.502472739146</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X41" t="n">
-        <v>1744.502472739146</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y41" t="n">
-        <v>1336.2163490388</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K42" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L42" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M42" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N42" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O42" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7558,13 +7560,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>751.6554974211238</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C44" t="n">
-        <v>323.0738231583921</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0738231583921</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E44" t="n">
-        <v>323.0738231583921</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M44" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N44" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W44" t="n">
-        <v>751.6554974211238</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X44" t="n">
-        <v>751.6554974211238</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y44" t="n">
-        <v>751.6554974211238</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.8381257054811</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>187.8381257054811</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>91.3608564523079</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>509.5707382202689</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>929.6236371651722</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>1270.644793662241</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>992.2117929153466</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>705.2562847857771</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>433.2298803720686</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>187.8381257054811</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.8381257054811</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8219,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8854,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956095</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M20" t="n">
-        <v>910.7345556956096</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>910.7345556956093</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>873.9371999099285</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>667.515206607857</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L32" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>88.52591951400996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10826,10 +10828,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11060,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078567</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P41" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>380.3061141901079</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>155.1313611263799</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22705,7 +22707,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.171890512211</v>
+        <v>26.33579611060415</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>401.5685805129595</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>240.7357856838609</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90.92021546249609</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.3248306318256</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23030,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>231.8807726716861</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23185,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>304.4406790834742</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>93.40908058260644</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.01701577190894</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23501,19 +23503,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>377.5342440098094</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>108.9739273104948</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.4628789093296</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>344.3826282629056</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23783,7 +23785,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>159.9167871205374</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23792,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>229.4233680290249</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>223.3404531462914</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24029,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>351.4681642564817</v>
       </c>
     </row>
     <row r="21">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>135.0797604404444</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>48.0600640737855</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,25 +24445,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>238.4440017062069</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>353.5010725621438</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.1347288775827</v>
+        <v>330.7987185958168</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24746,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444076</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>306.6510401945853</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>6.922331931185681</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25154,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.5318615680027</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>229.3936637186735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>275.8072779004126</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25448,10 +25450,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>269.6123607400069</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>65.20415515853239</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>278.9474599548259</v>
+        <v>368.7791696141422</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25694,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>369.4479714591268</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>11.86370033765851</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479518</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589197.253877605</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751039.4909720032</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342698.691769157</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="C2" t="n">
         <v>118366.9299602668</v>
@@ -26329,16 +26331,16 @@
         <v>118366.9299602668</v>
       </c>
       <c r="H2" t="n">
-        <v>144663.5841675883</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="I2" t="n">
-        <v>184400.1544480733</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="J2" t="n">
         <v>118366.9299602668</v>
       </c>
       <c r="K2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
       <c r="L2" t="n">
         <v>118366.9299602668</v>
@@ -26353,7 +26355,7 @@
         <v>118366.9299602668</v>
       </c>
       <c r="P2" t="n">
-        <v>84141.63629345148</v>
+        <v>118366.9299602668</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781397</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="C4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="D4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="E4" t="n">
         <v>9144.033827297713</v>
@@ -26433,16 +26435,16 @@
         <v>9144.033827297713</v>
       </c>
       <c r="H4" t="n">
-        <v>11175.49223968717</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="I4" t="n">
-        <v>14245.20557049264</v>
+        <v>9144.033827297711</v>
       </c>
       <c r="J4" t="n">
         <v>9144.033827297713</v>
       </c>
       <c r="K4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="L4" t="n">
         <v>9144.033827297713</v>
@@ -26457,7 +26459,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="P4" t="n">
-        <v>6500.075391072234</v>
+        <v>9144.033827297711</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
-      <c r="F5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55372.66098629306</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-188689.3270128334</v>
       </c>
       <c r="C6" t="n">
-        <v>35010.37157121139</v>
+        <v>35010.37157121142</v>
       </c>
       <c r="D6" t="n">
         <v>35010.37157121139</v>
       </c>
       <c r="E6" t="n">
+        <v>68637.97157121141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>68637.97157121143</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68637.97157121141</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68637.97157121141</v>
+      </c>
+      <c r="I6" t="n">
+        <v>68637.97157121144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-106013.3771464947</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68637.97157121144</v>
+      </c>
+      <c r="L6" t="n">
         <v>68637.97157121138</v>
-      </c>
-      <c r="F6" t="n">
-        <v>68637.97157121141</v>
-      </c>
-      <c r="G6" t="n">
-        <v>68637.97157121144</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12492.66158359059</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-5296.157263654546</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53784.46528339745</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68637.97157121141</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68637.97157121141</v>
       </c>
       <c r="M6" t="n">
         <v>68637.97157121141</v>
       </c>
       <c r="N6" t="n">
-        <v>68637.97157121138</v>
+        <v>68637.97157121141</v>
       </c>
       <c r="O6" t="n">
-        <v>68637.97157121141</v>
+        <v>68637.97157121143</v>
       </c>
       <c r="P6" t="n">
-        <v>51844.37276515691</v>
+        <v>68637.97157121143</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="F4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="E4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="F4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="G4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="H4" t="n">
-        <v>910.7345556956095</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1278.260503384745</v>
-      </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27009,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>667.5152066078571</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>243.2193490877526</v>
-      </c>
-      <c r="I4" t="n">
-        <v>367.5259476891358</v>
-      </c>
-      <c r="J4" t="n">
-        <v>56.76990983096869</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P17" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956095</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M20" t="n">
-        <v>910.7345556956096</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>910.7345556956093</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>873.9371999099285</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,7 +36524,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36598,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,13 +36609,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>667.515206607857</v>
@@ -36844,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L32" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>88.52591951400996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37546,10 +37548,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078567</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P41" t="n">
-        <v>88.52591951401018</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181828.5703078492</v>
+        <v>177610.3366675645</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7423353.428718868</v>
+        <v>7423353.428718874</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5574514.114835981</v>
+        <v>5574514.11483598</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.45493389830298</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>204.5381675114644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.8096778684287</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>35.16791248334732</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>163.4674767794822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336631358</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>73.01514676193452</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>191.7079826231982</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>28.60468344882547</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.5958956965845</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>183.4184358694288</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>123.2901323038662</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>51.90275338347833</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>45.50306732735508</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>32.98066327132575</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>89.37841982550532</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>34.75529100421603</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.16791248334739</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.73509820686137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>3.423392126084862</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>373.9765107062732</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>366.8909747126968</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>185.1447535886774</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>155.5869679636088</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2845,22 +2845,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>24.60824782505649</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>28.192061969695</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126084805</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>116.937715100299</v>
+        <v>54.14078383575707</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647611</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>185.5573750678089</v>
+        <v>231.8397749350065</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,16 +3505,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>157.9537701879983</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648644</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>124.5870006635331</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>28.60468344882653</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>95.05686356350671</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.50306732735552</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.924085187707</v>
+        <v>1134.057683778301</v>
       </c>
       <c r="C2" t="n">
-        <v>743.9292024621484</v>
+        <v>695.9152109617239</v>
       </c>
       <c r="D2" t="n">
-        <v>743.9292024621484</v>
+        <v>260.0054261361684</v>
       </c>
       <c r="E2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1224.223655672615</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.897665623735</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2504.7683235688</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2258.888877147255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.897665623735</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.642592532902</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.500119716325</v>
+        <v>1386.476319709254</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.590334890769</v>
+        <v>950.5665348836988</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>516.7917900419939</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>88.92436045120161</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,19 +4570,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4609,10 +4609,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="X5" t="n">
-        <v>2670.060826431428</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.942163017809</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536157</v>
+        <v>968.896903337504</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368406</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>562.2788970383633</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>392.5208932891006</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>215.8138392508568</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.33055796836</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425082</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703441</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C8" t="n">
-        <v>648.8602641703441</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D8" t="n">
-        <v>648.8602641703441</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>648.8602641703441</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655252</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.993051694572</v>
+        <v>1401.854776070402</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.993051694572</v>
+        <v>963.7123032538252</v>
       </c>
       <c r="D11" t="n">
-        <v>883.0832668690169</v>
+        <v>527.8025184282697</v>
       </c>
       <c r="E11" t="n">
-        <v>883.0832668690169</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F11" t="n">
-        <v>455.2158372782247</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G11" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5071,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="Y11" t="n">
-        <v>1437.776784721425</v>
+        <v>1828.15434655531</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5123,19 +5123,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5223,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1224.223655672616</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C14" t="n">
-        <v>1224.223655672616</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D14" t="n">
-        <v>1224.223655672616</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E14" t="n">
-        <v>1171.796632052941</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L14" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M14" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5311,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>1643.366119093305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X14" t="n">
-        <v>1224.223655672616</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y14" t="n">
-        <v>1224.223655672616</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5360,22 +5360,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862855</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5460,28 +5460,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1842.632239310392</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C17" t="n">
-        <v>1752.351007163417</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.441222337862</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E17" t="n">
-        <v>882.6664774961569</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K17" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L17" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M17" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N17" t="n">
-        <v>632.7278666362199</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5554,13 +5554,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="X17" t="n">
-        <v>2250.918363010739</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y17" t="n">
-        <v>1842.632239310392</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L18" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M18" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N18" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O18" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P18" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
         <v>1599.468199913098</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5697,28 +5697,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1406.107276723079</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2190.493479979994</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C20" t="n">
-        <v>1752.351007163417</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D20" t="n">
-        <v>1316.441222337862</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F20" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5758,46 +5758,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>2634.537682508855</v>
       </c>
       <c r="X20" t="n">
-        <v>2670.060826431428</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y20" t="n">
-        <v>2616.793050464902</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C22" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D22" t="n">
-        <v>568.9155211348376</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E22" t="n">
-        <v>399.1575173855749</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F22" t="n">
-        <v>222.4504633473311</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G22" t="n">
-        <v>56.85918837315873</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5934,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y22" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
         <v>1293.567921177998</v>
@@ -6031,10 +6031,10 @@
         <v>2586.408952615265</v>
       </c>
       <c r="X23" t="n">
-        <v>2167.266489194576</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y23" t="n">
-        <v>2167.266489194576</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P24" t="n">
         <v>1058.729261281022</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C25" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D25" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E25" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F25" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
         <v>53.40121652862856</v>
@@ -6159,7 +6159,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6177,22 +6177,22 @@
         <v>2648.6430051368</v>
       </c>
       <c r="T25" t="n">
-        <v>2634.504334502149</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U25" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V25" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W25" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X25" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>931.3608944498341</v>
+        <v>1182.488464651585</v>
       </c>
       <c r="C26" t="n">
-        <v>931.3608944498341</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D26" t="n">
-        <v>931.3608944498341</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E26" t="n">
-        <v>931.3608944498341</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F26" t="n">
         <v>744.3459918350084</v>
@@ -6220,34 +6220,34 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V26" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W26" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X26" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y26" t="n">
-        <v>931.3608944498341</v>
+        <v>1182.488464651585</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6308,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E28" t="n">
-        <v>233.2795245870976</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F28" t="n">
-        <v>56.57247054885377</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.642592532902</v>
+        <v>1329.268094920357</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.500119716325</v>
+        <v>891.1256221037802</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.590334890769</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="E29" t="n">
-        <v>770.8155900490646</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="F29" t="n">
-        <v>342.9481604582723</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L29" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M29" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N29" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2561.552136630359</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2561.552136630359</v>
       </c>
       <c r="V29" t="n">
-        <v>2078.642592532902</v>
+        <v>2561.552136630359</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.642592532902</v>
+        <v>2156.696682041393</v>
       </c>
       <c r="X29" t="n">
-        <v>2078.642592532902</v>
+        <v>1737.554218620704</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.642592532902</v>
+        <v>1329.268094920357</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1568898368411</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D31" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E31" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6627,7 +6627,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
@@ -6648,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U31" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1011.477214236518</v>
+        <v>1416.332668825484</v>
       </c>
       <c r="C32" t="n">
-        <v>573.3347414199409</v>
+        <v>978.1901960089076</v>
       </c>
       <c r="D32" t="n">
-        <v>573.3347414199409</v>
+        <v>542.280411183352</v>
       </c>
       <c r="E32" t="n">
-        <v>573.3347414199409</v>
+        <v>108.5056663416472</v>
       </c>
       <c r="F32" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>632.7278666362199</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M32" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N32" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O32" t="n">
-        <v>1293.567921177998</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6739,13 +6739,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W32" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X32" t="n">
-        <v>1846.062908421772</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y32" t="n">
-        <v>1437.776784721425</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L33" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M33" t="n">
-        <v>740.3049442308646</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N33" t="n">
-        <v>740.3049442308646</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O33" t="n">
-        <v>1401.144998772643</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P33" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
         <v>1599.468199913098</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6885,25 +6885,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C35" t="n">
-        <v>743.9292024621484</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D35" t="n">
-        <v>743.9292024621484</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E35" t="n">
-        <v>743.9292024621484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6955,34 +6955,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.119422805321</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V35" t="n">
-        <v>1744.502472739147</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W35" t="n">
-        <v>1339.647018150181</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="X35" t="n">
-        <v>1152.215326162495</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y35" t="n">
-        <v>743.9292024621484</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7019,19 +7019,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O36" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P36" t="n">
         <v>1058.729261281022</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>648.8602641703441</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C38" t="n">
-        <v>489.3110013541841</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D38" t="n">
-        <v>53.40121652862857</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E38" t="n">
-        <v>53.40121652862857</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M38" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N38" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7210,16 +7210,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>2307.443876365255</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>1902.588421776288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X38" t="n">
-        <v>1483.445958355599</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y38" t="n">
-        <v>1075.159834655252</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7256,19 +7256,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O39" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P39" t="n">
         <v>1058.729261281022</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C40" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D40" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E40" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F40" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2107.119422805321</v>
+        <v>1053.715718759311</v>
       </c>
       <c r="C41" t="n">
-        <v>1668.976949988744</v>
+        <v>615.573245942734</v>
       </c>
       <c r="D41" t="n">
-        <v>1233.067165163189</v>
+        <v>179.6634611171785</v>
       </c>
       <c r="E41" t="n">
-        <v>799.2924203214839</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F41" t="n">
-        <v>371.4249907306916</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L41" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M41" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N41" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2107.119422805321</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W41" t="n">
-        <v>2107.119422805321</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="X41" t="n">
-        <v>2107.119422805321</v>
+        <v>1888.301412944565</v>
       </c>
       <c r="Y41" t="n">
-        <v>2107.119422805321</v>
+        <v>1480.015289244218</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L42" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M42" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N42" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O42" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P42" t="n">
         <v>1058.729261281022</v>
@@ -7560,13 +7560,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.512437976118</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C44" t="n">
-        <v>1351.369965159541</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D44" t="n">
         <v>915.4601803339856</v>
@@ -7636,40 +7636,40 @@
         <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862857</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7278666362199</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7278666362199</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
@@ -7687,13 +7687,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X44" t="n">
-        <v>2624.098132161372</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.812008461025</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L45" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M45" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N45" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O45" t="n">
-        <v>2012.149109705013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P45" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7797,13 +7797,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8619,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,7 +9406,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,11 +10114,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,7 +10591,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,14 +10822,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L38" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>380.3061141901079</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>224.8988298818233</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.21302026266318</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.33579611060415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>362.2159405796214</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.7357856838609</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>90.92021546249609</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8807726716861</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>330.3860971166862</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.4406790834742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>246.018561523859</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>377.5342440098094</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.4479714591273</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>135.0797604404444</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>344.3826282629056</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>366.051609038861</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>47.64744259465397</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.4681642564817</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.0797604404444</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.0600640737855</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>48.06006407378555</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,7 +24454,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>238.4440017062069</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>248.6162944997343</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>193.2583070306353</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>330.7987185958168</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>306.6510401945853</v>
+        <v>369.4479714591272</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>229.3936637186735</v>
+        <v>183.1112638514759</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.8072779004126</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25450,13 +25450,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.0353499799959</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>304.8499967297547</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>368.7791696141422</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>336.4938234137932</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.4479714591268</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479517</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479518</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482094.1668479518</v>
+        <v>482094.1668479519</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479518</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482094.1668479519</v>
+        <v>482094.1668479518</v>
       </c>
     </row>
     <row r="15">
@@ -26340,7 +26340,7 @@
         <v>118366.9299602668</v>
       </c>
       <c r="K2" t="n">
-        <v>118366.9299602669</v>
+        <v>118366.9299602668</v>
       </c>
       <c r="L2" t="n">
         <v>118366.9299602668</v>
@@ -26355,7 +26355,7 @@
         <v>118366.9299602668</v>
       </c>
       <c r="P2" t="n">
-        <v>118366.9299602668</v>
+        <v>118366.9299602669</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="C4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="D4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="E4" t="n">
         <v>9144.033827297713</v>
@@ -26438,7 +26438,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="I4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="J4" t="n">
         <v>9144.033827297713</v>
@@ -26459,7 +26459,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="P4" t="n">
-        <v>9144.033827297711</v>
+        <v>9144.033827297713</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188689.3270128334</v>
+        <v>-189184.2172414147</v>
       </c>
       <c r="C6" t="n">
-        <v>35010.37157121142</v>
+        <v>34515.48134263016</v>
       </c>
       <c r="D6" t="n">
-        <v>35010.37157121139</v>
+        <v>34515.48134263013</v>
       </c>
       <c r="E6" t="n">
-        <v>68637.97157121141</v>
+        <v>68143.08134263018</v>
       </c>
       <c r="F6" t="n">
-        <v>68637.97157121143</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="G6" t="n">
-        <v>68637.97157121141</v>
+        <v>68143.08134263019</v>
       </c>
       <c r="H6" t="n">
-        <v>68637.97157121141</v>
+        <v>68143.08134263019</v>
       </c>
       <c r="I6" t="n">
-        <v>68637.97157121144</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="J6" t="n">
-        <v>-106013.3771464947</v>
+        <v>-106508.267375076</v>
       </c>
       <c r="K6" t="n">
-        <v>68637.97157121144</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="L6" t="n">
-        <v>68637.97157121138</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="M6" t="n">
-        <v>68637.97157121141</v>
+        <v>68143.08134263019</v>
       </c>
       <c r="N6" t="n">
-        <v>68637.97157121141</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="O6" t="n">
-        <v>68637.97157121143</v>
+        <v>68143.08134263016</v>
       </c>
       <c r="P6" t="n">
-        <v>68637.97157121143</v>
+        <v>68143.08134263019</v>
       </c>
     </row>
   </sheetData>
@@ -26795,43 +26795,43 @@
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35895,19 +35895,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36126,7 +36126,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36360,19 +36360,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>667.515206607857</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36524,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,11 +36834,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36995,10 +36995,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37071,25 +37071,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697544</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37311,7 +37311,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37542,14 +37542,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L38" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
@@ -37557,13 +37557,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L44" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
